--- a/DATA_goal/Junction_Flooding_480.xlsx
+++ b/DATA_goal/Junction_Flooding_480.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44811.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44811.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.49</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44811.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.48</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.78</v>
+        <v>27.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.4</v>
+        <v>43.98</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.3</v>
+        <v>23.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4</v>
+        <v>40.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44811.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.09</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_480.xlsx
+++ b/DATA_goal/Junction_Flooding_480.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44811.54861111111</v>
+        <v>45161.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44811.55555555555</v>
+        <v>45161.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.58</v>
+        <v>18.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.54</v>
+        <v>13.763</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.434</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.32</v>
+        <v>37.666</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.76</v>
+        <v>31.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.4</v>
+        <v>13.257</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.91</v>
+        <v>47.795</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.6</v>
+        <v>21.029</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.98</v>
+        <v>10.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.14</v>
+        <v>14.331</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.54</v>
+        <v>15.589</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.48</v>
+        <v>16.915</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.27</v>
+        <v>5.077</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.01</v>
+        <v>13.528</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.99</v>
+        <v>19.76</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.04</v>
+        <v>11.034</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.428</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.49</v>
+        <v>203.985</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.59</v>
+        <v>38.126</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>13.332</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.27</v>
+        <v>26.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.93</v>
+        <v>13.287</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.821</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.22</v>
+        <v>24.429</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.45</v>
+        <v>11.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.4</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.78</v>
+        <v>12.962</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.51</v>
+        <v>16.393</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.45</v>
+        <v>43.158</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.36</v>
+        <v>7.064</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.47</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44811.5625</v>
+        <v>45161.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.67</v>
+        <v>2.638</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.68</v>
+        <v>2.058</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.007</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.48</v>
+        <v>4.599</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.77</v>
+        <v>4.128</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12</v>
+        <v>1.421</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.98</v>
+        <v>13.644</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.15</v>
+        <v>2.616</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>1.841</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.2</v>
+        <v>1.904</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.99</v>
+        <v>2.127</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.61</v>
+        <v>2.503</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.21</v>
+        <v>1.038</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>1.632</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.46</v>
+        <v>2.804</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.202</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.346</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.5</v>
+        <v>21.143</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.57</v>
+        <v>5.289</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>2.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.01</v>
+        <v>3.914</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.23</v>
+        <v>1.641</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.245</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.59</v>
+        <v>6.354</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>1.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>1.405</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.63</v>
+        <v>2.334</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.54</v>
+        <v>2.243</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.01</v>
+        <v>12.998</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.36</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44811.56944444445</v>
+        <v>45161.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>11.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.91</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>124.07</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>10.72</v>
+        <v>27.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44811.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_480.xlsx
+++ b/DATA_goal/Junction_Flooding_480.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -457,14 +457,14 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45161.50694444445</v>
+        <v>44811.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.682</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.404</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.057</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.269</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.974</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.719</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.974</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.211</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.582</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.706</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.605</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.024</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45161.51388888889</v>
+        <v>44811.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.14</v>
+        <v>3.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.763</v>
+        <v>2.542</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.434</v>
+        <v>1.223</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.666</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.64</v>
+        <v>5.763</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.257</v>
+        <v>2.395</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.795</v>
+        <v>12.912</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.029</v>
+        <v>4.599</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.26</v>
+        <v>1.978</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.331</v>
+        <v>2.136</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.589</v>
+        <v>3.543</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.915</v>
+        <v>3.477</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.077</v>
+        <v>1.266</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.528</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.76</v>
+        <v>3.994</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.034</v>
+        <v>3.044</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.594</v>
+        <v>1.037</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.428</v>
+        <v>0.297</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>203.985</v>
+        <v>38.485</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.126</v>
+        <v>8.593</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.332</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.16</v>
+        <v>5.266</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.287</v>
+        <v>2.932</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.821</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.429</v>
+        <v>7.223</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.146</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>2.404</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.962</v>
+        <v>2.776</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.393</v>
+        <v>3.513</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.158</v>
+        <v>12.453</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.064</v>
+        <v>1.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.728</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45161.52083333334</v>
+        <v>44811.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.638</v>
+        <v>15.666</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.058</v>
+        <v>11.682</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.007</v>
+        <v>1.234</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.599</v>
+        <v>34.477</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.128</v>
+        <v>27.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.421</v>
+        <v>12.002</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.644</v>
+        <v>43.981</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.616</v>
+        <v>19.146</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.841</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.904</v>
+        <v>12.196</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.127</v>
+        <v>13.995</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.503</v>
+        <v>14.607</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.038</v>
+        <v>4.213</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.632</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.804</v>
+        <v>17.464</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.202</v>
+        <v>10.67</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.346</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.013</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.143</v>
+        <v>181.499</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.289</v>
+        <v>34.569</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.023</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.914</v>
+        <v>23.009</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.641</v>
+        <v>12.232</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.245</v>
+        <v>1.674</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.354</v>
+        <v>22.594</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.437</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.405</v>
+        <v>9.053000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.334</v>
+        <v>10.626</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.243</v>
+        <v>14.543</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.998</v>
+        <v>40.006</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8120000000000001</v>
+        <v>6.364</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.958</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45161.52777777778</v>
+        <v>44811.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.22</v>
+        <v>1.295</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.48</v>
+        <v>0.912</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.6</v>
+        <v>3.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.74</v>
+        <v>2.043</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.35</v>
+        <v>0.758</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.13</v>
+        <v>10.868</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.17</v>
+        <v>1.698</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.31</v>
+        <v>0.921</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.642</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.66</v>
+        <v>1.387</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.09</v>
+        <v>0.587</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.31</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.88</v>
+        <v>1.239</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.091</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.07</v>
+        <v>9.984999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.71</v>
+        <v>3.683</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.18</v>
+        <v>1.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.18</v>
+        <v>2.385</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.34</v>
+        <v>1.187</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.392</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>10.722</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44811.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
         <v>1.13</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.81</v>
+      <c r="P6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_480.xlsx
+++ b/DATA_goal/Junction_Flooding_480.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
@@ -457,14 +457,14 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44811.54861111111</v>
+        <v>45161.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44811.55555555555</v>
+        <v>45161.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.58</v>
+        <v>18.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.542</v>
+        <v>13.763</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.223</v>
+        <v>0.434</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.321999999999999</v>
+        <v>37.666</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.763</v>
+        <v>31.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.395</v>
+        <v>13.257</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.912</v>
+        <v>47.795</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.599</v>
+        <v>21.029</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.978</v>
+        <v>10.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.136</v>
+        <v>14.331</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.543</v>
+        <v>15.589</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.477</v>
+        <v>16.915</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.266</v>
+        <v>5.077</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.008</v>
+        <v>13.528</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.994</v>
+        <v>19.76</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.044</v>
+        <v>11.034</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.037</v>
+        <v>0.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.297</v>
+        <v>0.428</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.485</v>
+        <v>203.985</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.593</v>
+        <v>38.126</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.776</v>
+        <v>13.332</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.266</v>
+        <v>26.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.932</v>
+        <v>13.287</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.821</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.223</v>
+        <v>24.429</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.452</v>
+        <v>11.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.404</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.776</v>
+        <v>12.962</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.513</v>
+        <v>16.393</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.453</v>
+        <v>43.158</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.36</v>
+        <v>7.064</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.473</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44811.5625</v>
+        <v>45161.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.666</v>
+        <v>2.638</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.682</v>
+        <v>2.058</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.234</v>
+        <v>0.007</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.477</v>
+        <v>4.599</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.77</v>
+        <v>4.128</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.002</v>
+        <v>1.421</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.981</v>
+        <v>13.644</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.146</v>
+        <v>2.616</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>1.841</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.196</v>
+        <v>1.904</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.995</v>
+        <v>2.127</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.607</v>
+        <v>2.503</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.213</v>
+        <v>1.038</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.407</v>
+        <v>1.632</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.464</v>
+        <v>2.804</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.202</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.346</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.499</v>
+        <v>21.143</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.569</v>
+        <v>5.289</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.452</v>
+        <v>2.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.009</v>
+        <v>3.914</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.232</v>
+        <v>1.641</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.674</v>
+        <v>0.245</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.594</v>
+        <v>6.354</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.115</v>
+        <v>1.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.053000000000001</v>
+        <v>1.405</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.626</v>
+        <v>2.334</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.543</v>
+        <v>2.243</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.006</v>
+        <v>12.998</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.364</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.317</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44811.56944444445</v>
+        <v>45161.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.295</v>
+        <v>11.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.912</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.13</v>
+        <v>23.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.043</v>
+        <v>19.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.758</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.868</v>
+        <v>31.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.698</v>
+        <v>13.17</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.921</v>
+        <v>6.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.642</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.387</v>
+        <v>9.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.31</v>
+        <v>10.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.587</v>
+        <v>3.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.62</v>
+        <v>12.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.239</v>
+        <v>6.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.091</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.984999999999999</v>
+        <v>124.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.683</v>
+        <v>23.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>8.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.385</v>
+        <v>16.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.187</v>
+        <v>8.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.175</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.392</v>
+        <v>15.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>6.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.961</v>
+        <v>6.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.094</v>
+        <v>7.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.318</v>
+        <v>10.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.722</v>
+        <v>27.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.314</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44811.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
